--- a/tests/indicators/e-k/Fcb/Fcb.Calc.xlsx
+++ b/tests/indicators/e-k/Fcb/Fcb.Calc.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EDFC55-19E1-4C39-9430-3B3096D89359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F842BB-96E6-4F0F-A9A2-F48D18FB5CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FCB(2)" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,16 @@
     <definedName name="Multiplier">'FCB(2)'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -36,9 +46,6 @@
     <t>close</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -52,6 +59,9 @@
   </si>
   <si>
     <t>Lower</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -642,7 +652,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -680,32 +715,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -909,7 +919,7 @@
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="12" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="10" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="9" dataCellStyle="Currency"/>
@@ -917,8 +927,8 @@
     <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="7" dataCellStyle="Currency"/>
     <tableColumn id="11" xr3:uid="{10684292-6050-4331-AAC5-0FA320374389}" name="Bear" dataDxfId="6" dataCellStyle="Currency"/>
     <tableColumn id="12" xr3:uid="{7639B0EF-4461-45C6-93E9-01F836F60578}" name="Bull" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{3490ACE0-F9CE-4EDE-85D8-58E1F42EC29B}" name="Upper" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{A9B8D1BD-34FB-4C60-859D-E0522274E81F}" name="Lower" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{3490ACE0-F9CE-4EDE-85D8-58E1F42EC29B}" name="Upper" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{A9B8D1BD-34FB-4C60-859D-E0522274E81F}" name="Lower" dataDxfId="3" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -927,9 +937,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AE3C1911-0AFB-4BCC-99D5-953F0E171629}" name="Table2" displayName="Table2" ref="L1:N503" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F340E272-D2E6-4C74-AADB-584021EB7430}" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{696694CF-496E-4ABE-8764-4CC6360C3242}" name="Upper" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{A58A3F71-FC92-4CCC-A997-C8E96A8668E2}" name="Lower" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{F340E272-D2E6-4C74-AADB-584021EB7430}" name="Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{696694CF-496E-4ABE-8764-4CC6360C3242}" name="Upper" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{A58A3F71-FC92-4CCC-A997-C8E96A8668E2}" name="Lower" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1235,12 +1245,12 @@
   <dimension ref="A1:N503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="10.7109375" customWidth="1"/>
@@ -1251,7 +1261,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1269,34 +1279,34 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K1" s="8">
         <f>COUNTIF(K2:K503,"ERR")</f>
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>42738</v>
@@ -1329,7 +1339,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>42739</v>
@@ -1351,7 +1361,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="8" t="str">
-        <f t="shared" ref="K2:K65" si="0">IF(OR(I3&lt;&gt;M3,J3&lt;&gt;N3),"ERR","")</f>
+        <f t="shared" ref="K3:K65" si="0">IF(OR(I3&lt;&gt;M3,J3&lt;&gt;N3),"ERR","")</f>
         <v/>
       </c>
       <c r="L3" s="2">
@@ -1362,7 +1372,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>42740</v>
@@ -1401,7 +1411,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>42741</v>
@@ -1440,7 +1450,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>42744</v>
@@ -1485,7 +1495,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>42745</v>
@@ -1532,7 +1542,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>42746</v>
@@ -1579,7 +1589,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>42747</v>
@@ -1626,7 +1636,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>42748</v>
@@ -1673,7 +1683,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>42752</v>
@@ -1722,7 +1732,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>42753</v>
@@ -1771,7 +1781,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>42754</v>
@@ -1820,7 +1830,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>42755</v>
@@ -1869,7 +1879,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>42758</v>
@@ -1918,7 +1928,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>42759</v>
@@ -1967,7 +1977,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>42760</v>
@@ -2016,7 +2026,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>42761</v>
@@ -2065,7 +2075,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>42762</v>
@@ -2114,7 +2124,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>42765</v>
@@ -2163,7 +2173,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>42766</v>
@@ -2212,7 +2222,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>42767</v>
@@ -2261,7 +2271,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>42768</v>
@@ -2310,7 +2320,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>42769</v>
@@ -2359,7 +2369,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>42772</v>
@@ -2408,7 +2418,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>42773</v>
@@ -2457,7 +2467,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>42774</v>
@@ -2506,7 +2516,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>42775</v>
@@ -2555,7 +2565,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>42776</v>
@@ -2604,7 +2614,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>42779</v>
@@ -2653,7 +2663,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>42780</v>
@@ -2702,7 +2712,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>42781</v>
@@ -2751,7 +2761,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>42782</v>
@@ -2800,7 +2810,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>42783</v>
@@ -2849,7 +2859,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>42787</v>
@@ -2898,7 +2908,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>42788</v>
@@ -2947,7 +2957,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>42789</v>
@@ -2996,7 +3006,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>42790</v>
@@ -3045,7 +3055,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>42793</v>
@@ -3094,7 +3104,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>42794</v>
@@ -3143,7 +3153,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>42795</v>
@@ -3192,7 +3202,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>42796</v>
@@ -3241,7 +3251,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>42797</v>
@@ -3290,7 +3300,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>42800</v>
@@ -3339,7 +3349,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>42801</v>
@@ -3388,7 +3398,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>42802</v>
@@ -3437,7 +3447,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>42803</v>
@@ -3486,7 +3496,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>42804</v>
@@ -3535,7 +3545,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>42807</v>
@@ -3584,7 +3594,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>42808</v>
@@ -3633,7 +3643,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>42809</v>
@@ -3682,7 +3692,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>42810</v>
@@ -3731,7 +3741,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>42811</v>
@@ -3780,7 +3790,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>42814</v>
@@ -3829,7 +3839,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>42815</v>
@@ -3878,7 +3888,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>42816</v>
@@ -3927,7 +3937,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>42817</v>
@@ -3976,7 +3986,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>42818</v>
@@ -4025,7 +4035,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>42821</v>
@@ -4074,7 +4084,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>42822</v>
@@ -4123,7 +4133,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>42823</v>
@@ -4172,7 +4182,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>42824</v>
@@ -4221,7 +4231,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>42825</v>
@@ -4270,7 +4280,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>42828</v>
@@ -4319,7 +4329,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>42829</v>
@@ -4368,7 +4378,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <v>42830</v>
@@ -4417,7 +4427,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>42831</v>
@@ -4466,7 +4476,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
         <v>42832</v>
@@ -4515,7 +4525,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>42835</v>
@@ -4564,7 +4574,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <v>42836</v>
@@ -4613,7 +4623,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
         <v>42837</v>
@@ -4662,7 +4672,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <v>42838</v>
@@ -4711,7 +4721,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
         <v>42842</v>
@@ -4760,7 +4770,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <v>42843</v>
@@ -4809,7 +4819,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <v>42844</v>
@@ -4858,7 +4868,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>42845</v>
@@ -4907,7 +4917,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>42846</v>
@@ -4956,7 +4966,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <v>42849</v>
@@ -5005,7 +5015,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <v>42850</v>
@@ -5054,7 +5064,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
         <v>42851</v>
@@ -5103,7 +5113,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
         <v>42852</v>
@@ -5152,7 +5162,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <v>42853</v>
@@ -5201,7 +5211,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>42856</v>
@@ -5250,7 +5260,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <v>42857</v>
@@ -5299,7 +5309,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
         <v>42858</v>
@@ -5348,7 +5358,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
         <v>42859</v>
@@ -5397,7 +5407,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2">
         <v>42860</v>
@@ -5446,7 +5456,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
         <v>42863</v>
@@ -5495,7 +5505,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2">
         <v>42864</v>
@@ -5544,7 +5554,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
         <v>42865</v>
@@ -5593,7 +5603,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2">
         <v>42866</v>
@@ -5642,7 +5652,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2">
         <v>42867</v>
@@ -5691,7 +5701,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2">
         <v>42870</v>
@@ -5740,7 +5750,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2">
         <v>42871</v>
@@ -5789,7 +5799,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2">
         <v>42872</v>
@@ -5838,7 +5848,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2">
         <v>42873</v>
@@ -5887,7 +5897,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2">
         <v>42874</v>
@@ -5936,7 +5946,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2">
         <v>42877</v>
@@ -5985,7 +5995,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2">
         <v>42878</v>
@@ -6034,7 +6044,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2">
         <v>42879</v>
@@ -6083,7 +6093,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2">
         <v>42880</v>
@@ -6132,7 +6142,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2">
         <v>42881</v>
@@ -6181,7 +6191,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2">
         <v>42885</v>
@@ -6230,7 +6240,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2">
         <v>42886</v>
@@ -6279,7 +6289,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2">
         <v>42887</v>
@@ -6328,7 +6338,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2">
         <v>42888</v>
@@ -6377,7 +6387,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2">
         <v>42891</v>
@@ -6426,7 +6436,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2">
         <v>42892</v>
@@ -6475,7 +6485,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2">
         <v>42893</v>
@@ -6524,7 +6534,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2">
         <v>42894</v>
@@ -6573,7 +6583,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2">
         <v>42895</v>
@@ -6622,7 +6632,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2">
         <v>42898</v>
@@ -6671,7 +6681,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2">
         <v>42899</v>
@@ -6720,7 +6730,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2">
         <v>42900</v>
@@ -6769,7 +6779,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2">
         <v>42901</v>
@@ -6818,7 +6828,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2">
         <v>42902</v>
@@ -6867,7 +6877,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2">
         <v>42905</v>
@@ -6916,7 +6926,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2">
         <v>42906</v>
@@ -6965,7 +6975,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2">
         <v>42907</v>
@@ -7014,7 +7024,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2">
         <v>42908</v>
@@ -7063,7 +7073,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2">
         <v>42909</v>
@@ -7112,7 +7122,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2">
         <v>42912</v>
@@ -7161,7 +7171,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2">
         <v>42913</v>
@@ -7210,7 +7220,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2">
         <v>42914</v>
@@ -7259,7 +7269,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2">
         <v>42915</v>
@@ -7308,7 +7318,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2">
         <v>42916</v>
@@ -7357,7 +7367,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2">
         <v>42919</v>
@@ -7406,7 +7416,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2">
         <v>42921</v>
@@ -7455,7 +7465,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2">
         <v>42922</v>
@@ -7504,7 +7514,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2">
         <v>42923</v>
@@ -7553,7 +7563,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2">
         <v>42926</v>
@@ -7602,7 +7612,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2">
         <v>42927</v>
@@ -7651,7 +7661,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2">
         <v>42928</v>
@@ -7700,7 +7710,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2">
         <v>42929</v>
@@ -7749,7 +7759,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2">
         <v>42930</v>
@@ -7798,7 +7808,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2">
         <v>42933</v>
@@ -7847,7 +7857,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2">
         <v>42934</v>
@@ -7896,7 +7906,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
         <v>42935</v>
@@ -7945,7 +7955,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2">
         <v>42936</v>
@@ -7994,7 +8004,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2">
         <v>42937</v>
@@ -8043,7 +8053,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2">
         <v>42940</v>
@@ -8092,7 +8102,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2">
         <v>42941</v>
@@ -8141,7 +8151,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2">
         <v>42942</v>
@@ -8190,7 +8200,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2">
         <v>42943</v>
@@ -8239,7 +8249,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2">
         <v>42944</v>
@@ -8288,7 +8298,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2">
         <v>42947</v>
@@ -8337,7 +8347,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2">
         <v>42948</v>
@@ -8386,7 +8396,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2">
         <v>42949</v>
@@ -8435,7 +8445,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2">
         <v>42950</v>
@@ -8484,7 +8494,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2">
         <v>42951</v>
@@ -8533,7 +8543,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2">
         <v>42954</v>
@@ -8582,7 +8592,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2">
         <v>42955</v>
@@ -8631,7 +8641,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2">
         <v>42956</v>
@@ -8680,7 +8690,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2">
         <v>42957</v>
@@ -8729,7 +8739,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2">
         <v>42958</v>
@@ -8778,7 +8788,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2">
         <v>42961</v>
@@ -8827,7 +8837,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2">
         <v>42962</v>
@@ -8876,7 +8886,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2">
         <v>42963</v>
@@ -8925,7 +8935,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2">
         <v>42964</v>
@@ -8974,7 +8984,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2">
         <v>42965</v>
@@ -9023,7 +9033,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2">
         <v>42968</v>
@@ -9072,7 +9082,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2">
         <v>42969</v>
@@ -9121,7 +9131,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2">
         <v>42970</v>
@@ -9170,7 +9180,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2">
         <v>42971</v>
@@ -9219,7 +9229,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2">
         <v>42972</v>
@@ -9268,7 +9278,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2">
         <v>42975</v>
@@ -9317,7 +9327,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2">
         <v>42976</v>
@@ -9366,7 +9376,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2">
         <v>42977</v>
@@ -9415,7 +9425,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2">
         <v>42978</v>
@@ -9464,7 +9474,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2">
         <v>42979</v>
@@ -9513,7 +9523,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2">
         <v>42983</v>
@@ -9562,7 +9572,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2">
         <v>42984</v>
@@ -9611,7 +9621,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2">
         <v>42985</v>
@@ -9660,7 +9670,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2">
         <v>42986</v>
@@ -9709,7 +9719,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2">
         <v>42989</v>
@@ -9758,7 +9768,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2">
         <v>42990</v>
@@ -9807,7 +9817,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2">
         <v>42991</v>
@@ -9856,7 +9866,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2">
         <v>42992</v>
@@ -9905,7 +9915,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2">
         <v>42993</v>
@@ -9954,7 +9964,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2">
         <v>42996</v>
@@ -10003,7 +10013,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2">
         <v>42997</v>
@@ -10052,7 +10062,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2">
         <v>42998</v>
@@ -10101,7 +10111,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2">
         <v>42999</v>
@@ -10150,7 +10160,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2">
         <v>43000</v>
@@ -10199,7 +10209,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2">
         <v>43003</v>
@@ -10248,7 +10258,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2">
         <v>43004</v>
@@ -10297,7 +10307,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2">
         <v>43005</v>
@@ -10346,7 +10356,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2">
         <v>43006</v>
@@ -10395,7 +10405,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2">
         <v>43007</v>
@@ -10444,7 +10454,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2">
         <v>43010</v>
@@ -10493,7 +10503,7 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2">
         <v>43011</v>
@@ -10542,7 +10552,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2">
         <v>43012</v>
@@ -10591,7 +10601,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2">
         <v>43013</v>
@@ -10640,7 +10650,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2">
         <v>43014</v>
@@ -10689,7 +10699,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2">
         <v>43017</v>
@@ -10738,7 +10748,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2">
         <v>43018</v>
@@ -10787,7 +10797,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2">
         <v>43019</v>
@@ -10836,7 +10846,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2">
         <v>43020</v>
@@ -10885,7 +10895,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2">
         <v>43021</v>
@@ -10934,7 +10944,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2">
         <v>43024</v>
@@ -10983,7 +10993,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2">
         <v>43025</v>
@@ -11032,7 +11042,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2">
         <v>43026</v>
@@ -11081,7 +11091,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2">
         <v>43027</v>
@@ -11130,7 +11140,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2">
         <v>43028</v>
@@ -11179,7 +11189,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2">
         <v>43031</v>
@@ -11228,7 +11238,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2">
         <v>43032</v>
@@ -11277,7 +11287,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2">
         <v>43033</v>
@@ -11326,7 +11336,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2">
         <v>43034</v>
@@ -11375,7 +11385,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2">
         <v>43035</v>
@@ -11424,7 +11434,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2">
         <v>43038</v>
@@ -11473,7 +11483,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2">
         <v>43039</v>
@@ -11522,7 +11532,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2">
         <v>43040</v>
@@ -11571,7 +11581,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2">
         <v>43041</v>
@@ -11620,7 +11630,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2">
         <v>43042</v>
@@ -11669,7 +11679,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2">
         <v>43045</v>
@@ -11718,7 +11728,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2">
         <v>43046</v>
@@ -11767,7 +11777,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2">
         <v>43047</v>
@@ -11816,7 +11826,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2">
         <v>43048</v>
@@ -11865,7 +11875,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2">
         <v>43049</v>
@@ -11914,7 +11924,7 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2">
         <v>43052</v>
@@ -11963,7 +11973,7 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2">
         <v>43053</v>
@@ -12012,7 +12022,7 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2">
         <v>43054</v>
@@ -12061,7 +12071,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2">
         <v>43055</v>
@@ -12110,7 +12120,7 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2">
         <v>43056</v>
@@ -12159,7 +12169,7 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2">
         <v>43059</v>
@@ -12208,7 +12218,7 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2">
         <v>43060</v>
@@ -12257,7 +12267,7 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2">
         <v>43061</v>
@@ -12306,7 +12316,7 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2">
         <v>43063</v>
@@ -12355,7 +12365,7 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2">
         <v>43066</v>
@@ -12404,7 +12414,7 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2">
         <v>43067</v>
@@ -12453,7 +12463,7 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2">
         <v>43068</v>
@@ -12502,7 +12512,7 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2">
         <v>43069</v>
@@ -12551,7 +12561,7 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2">
         <v>43070</v>
@@ -12600,7 +12610,7 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2">
         <v>43073</v>
@@ -12649,7 +12659,7 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2">
         <v>43074</v>
@@ -12698,7 +12708,7 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2">
         <v>43075</v>
@@ -12747,7 +12757,7 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2">
         <v>43076</v>
@@ -12796,7 +12806,7 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2">
         <v>43077</v>
@@ -12845,7 +12855,7 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2">
         <v>43080</v>
@@ -12894,7 +12904,7 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2">
         <v>43081</v>
@@ -12943,7 +12953,7 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2">
         <v>43082</v>
@@ -12992,7 +13002,7 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2">
         <v>43083</v>
@@ -13041,7 +13051,7 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2">
         <v>43084</v>
@@ -13090,7 +13100,7 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2">
         <v>43087</v>
@@ -13139,7 +13149,7 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2">
         <v>43088</v>
@@ -13188,7 +13198,7 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2">
         <v>43089</v>
@@ -13237,7 +13247,7 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2">
         <v>43090</v>
@@ -13286,7 +13296,7 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2">
         <v>43091</v>
@@ -13335,7 +13345,7 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2">
         <v>43095</v>
@@ -13384,7 +13394,7 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2">
         <v>43096</v>
@@ -13433,7 +13443,7 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2">
         <v>43097</v>
@@ -13482,7 +13492,7 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2">
         <v>43098</v>
@@ -13531,7 +13541,7 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2">
         <v>43102</v>
@@ -13580,7 +13590,7 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2">
         <v>43103</v>
@@ -13629,7 +13639,7 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2">
         <v>43104</v>
@@ -13678,7 +13688,7 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2">
         <v>43105</v>
@@ -13727,7 +13737,7 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2">
         <v>43108</v>
@@ -13776,7 +13786,7 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2">
         <v>43109</v>
@@ -13825,7 +13835,7 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2">
         <v>43110</v>
@@ -13874,7 +13884,7 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2">
         <v>43111</v>
@@ -13923,7 +13933,7 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2">
         <v>43112</v>
@@ -13972,7 +13982,7 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2">
         <v>43116</v>
@@ -14021,7 +14031,7 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2">
         <v>43117</v>
@@ -14070,7 +14080,7 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2">
         <v>43118</v>
@@ -14119,7 +14129,7 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2">
         <v>43119</v>
@@ -14168,7 +14178,7 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2">
         <v>43122</v>
@@ -14217,7 +14227,7 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2">
         <v>43123</v>
@@ -14266,7 +14276,7 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2">
         <v>43124</v>
@@ -14315,7 +14325,7 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2">
         <v>43125</v>
@@ -14364,7 +14374,7 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2">
         <v>43126</v>
@@ -14413,7 +14423,7 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2">
         <v>43129</v>
@@ -14462,7 +14472,7 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2">
         <v>43130</v>
@@ -14511,7 +14521,7 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2">
         <v>43131</v>
@@ -14560,7 +14570,7 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2">
         <v>43132</v>
@@ -14609,7 +14619,7 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2">
         <v>43133</v>
@@ -14658,7 +14668,7 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2">
         <v>43136</v>
@@ -14707,7 +14717,7 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2">
         <v>43137</v>
@@ -14756,7 +14766,7 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2">
         <v>43138</v>
@@ -14805,7 +14815,7 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2">
         <v>43139</v>
@@ -14854,7 +14864,7 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2">
         <v>43140</v>
@@ -14903,7 +14913,7 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2">
         <v>43143</v>
@@ -14952,7 +14962,7 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2">
         <v>43144</v>
@@ -15001,7 +15011,7 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2">
         <v>43145</v>
@@ -15050,7 +15060,7 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2">
         <v>43146</v>
@@ -15099,7 +15109,7 @@
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2">
         <v>43147</v>
@@ -15148,7 +15158,7 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2">
         <v>43151</v>
@@ -15197,7 +15207,7 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2">
         <v>43152</v>
@@ -15246,7 +15256,7 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2">
         <v>43153</v>
@@ -15295,7 +15305,7 @@
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2">
         <v>43154</v>
@@ -15344,7 +15354,7 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2">
         <v>43157</v>
@@ -15393,7 +15403,7 @@
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2">
         <v>43158</v>
@@ -15442,7 +15452,7 @@
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2">
         <v>43159</v>
@@ -15491,7 +15501,7 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2">
         <v>43160</v>
@@ -15540,7 +15550,7 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2">
         <v>43161</v>
@@ -15589,7 +15599,7 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2">
         <v>43164</v>
@@ -15638,7 +15648,7 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2">
         <v>43165</v>
@@ -15687,7 +15697,7 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2">
         <v>43166</v>
@@ -15736,7 +15746,7 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2">
         <v>43167</v>
@@ -15785,7 +15795,7 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2">
         <v>43168</v>
@@ -15834,7 +15844,7 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2">
         <v>43171</v>
@@ -15883,7 +15893,7 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2">
         <v>43172</v>
@@ -15932,7 +15942,7 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2">
         <v>43173</v>
@@ -15981,7 +15991,7 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2">
         <v>43174</v>
@@ -16030,7 +16040,7 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2">
         <v>43175</v>
@@ -16079,7 +16089,7 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2">
         <v>43178</v>
@@ -16128,7 +16138,7 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2">
         <v>43179</v>
@@ -16177,7 +16187,7 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2">
         <v>43180</v>
@@ -16226,7 +16236,7 @@
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2">
         <v>43181</v>
@@ -16275,7 +16285,7 @@
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2">
         <v>43182</v>
@@ -16324,7 +16334,7 @@
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2">
         <v>43185</v>
@@ -16373,7 +16383,7 @@
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2">
         <v>43186</v>
@@ -16422,7 +16432,7 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2">
         <v>43187</v>
@@ -16471,7 +16481,7 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2">
         <v>43188</v>
@@ -16520,7 +16530,7 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2">
         <v>43192</v>
@@ -16569,7 +16579,7 @@
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2">
         <v>43193</v>
@@ -16618,7 +16628,7 @@
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2">
         <v>43194</v>
@@ -16667,7 +16677,7 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2">
         <v>43195</v>
@@ -16716,7 +16726,7 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2">
         <v>43196</v>
@@ -16765,7 +16775,7 @@
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2">
         <v>43199</v>
@@ -16814,7 +16824,7 @@
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2">
         <v>43200</v>
@@ -16863,7 +16873,7 @@
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2">
         <v>43201</v>
@@ -16912,7 +16922,7 @@
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2">
         <v>43202</v>
@@ -16961,7 +16971,7 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2">
         <v>43203</v>
@@ -17010,7 +17020,7 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2">
         <v>43206</v>
@@ -17059,7 +17069,7 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2">
         <v>43207</v>
@@ -17108,7 +17118,7 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2">
         <v>43208</v>
@@ -17157,7 +17167,7 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2">
         <v>43209</v>
@@ -17206,7 +17216,7 @@
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2">
         <v>43210</v>
@@ -17255,7 +17265,7 @@
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2">
         <v>43213</v>
@@ -17304,7 +17314,7 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2">
         <v>43214</v>
@@ -17353,7 +17363,7 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2">
         <v>43215</v>
@@ -17402,7 +17412,7 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2">
         <v>43216</v>
@@ -17451,7 +17461,7 @@
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2">
         <v>43217</v>
@@ -17500,7 +17510,7 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2">
         <v>43220</v>
@@ -17549,7 +17559,7 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2">
         <v>43221</v>
@@ -17598,7 +17608,7 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2">
         <v>43222</v>
@@ -17647,7 +17657,7 @@
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2">
         <v>43223</v>
@@ -17696,7 +17706,7 @@
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2">
         <v>43224</v>
@@ -17745,7 +17755,7 @@
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2">
         <v>43227</v>
@@ -17794,7 +17804,7 @@
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2">
         <v>43228</v>
@@ -17843,7 +17853,7 @@
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2">
         <v>43229</v>
@@ -17892,7 +17902,7 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2">
         <v>43230</v>
@@ -17941,7 +17951,7 @@
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2">
         <v>43231</v>
@@ -17990,7 +18000,7 @@
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2">
         <v>43234</v>
@@ -18039,7 +18049,7 @@
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2">
         <v>43235</v>
@@ -18088,7 +18098,7 @@
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2">
         <v>43236</v>
@@ -18137,7 +18147,7 @@
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2">
         <v>43237</v>
@@ -18186,7 +18196,7 @@
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2">
         <v>43238</v>
@@ -18235,7 +18245,7 @@
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2">
         <v>43241</v>
@@ -18284,7 +18294,7 @@
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2">
         <v>43242</v>
@@ -18333,7 +18343,7 @@
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2">
         <v>43243</v>
@@ -18382,7 +18392,7 @@
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2">
         <v>43244</v>
@@ -18431,7 +18441,7 @@
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2">
         <v>43245</v>
@@ -18480,7 +18490,7 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2">
         <v>43249</v>
@@ -18529,7 +18539,7 @@
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="2">
         <v>43250</v>
@@ -18578,7 +18588,7 @@
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="2">
         <v>43251</v>
@@ -18627,7 +18637,7 @@
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="2">
         <v>43252</v>
@@ -18676,7 +18686,7 @@
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="2">
         <v>43255</v>
@@ -18725,7 +18735,7 @@
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="2">
         <v>43256</v>
@@ -18774,7 +18784,7 @@
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="2">
         <v>43257</v>
@@ -18823,7 +18833,7 @@
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="2">
         <v>43258</v>
@@ -18872,7 +18882,7 @@
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="2">
         <v>43259</v>
@@ -18921,7 +18931,7 @@
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="2">
         <v>43262</v>
@@ -18970,7 +18980,7 @@
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2">
         <v>43263</v>
@@ -19019,7 +19029,7 @@
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="2">
         <v>43264</v>
@@ -19068,7 +19078,7 @@
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="2">
         <v>43265</v>
@@ -19117,7 +19127,7 @@
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="2">
         <v>43266</v>
@@ -19166,7 +19176,7 @@
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="2">
         <v>43269</v>
@@ -19215,7 +19225,7 @@
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="2">
         <v>43270</v>
@@ -19264,7 +19274,7 @@
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="2">
         <v>43271</v>
@@ -19313,7 +19323,7 @@
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="2">
         <v>43272</v>
@@ -19362,7 +19372,7 @@
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="2">
         <v>43273</v>
@@ -19411,7 +19421,7 @@
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="2">
         <v>43276</v>
@@ -19460,7 +19470,7 @@
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="2">
         <v>43277</v>
@@ -19509,7 +19519,7 @@
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="2">
         <v>43278</v>
@@ -19558,7 +19568,7 @@
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="2">
         <v>43279</v>
@@ -19607,7 +19617,7 @@
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="2">
         <v>43280</v>
@@ -19656,7 +19666,7 @@
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="2">
         <v>43283</v>
@@ -19705,7 +19715,7 @@
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="2">
         <v>43284</v>
@@ -19754,7 +19764,7 @@
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="2">
         <v>43286</v>
@@ -19803,7 +19813,7 @@
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="2">
         <v>43287</v>
@@ -19852,7 +19862,7 @@
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="2">
         <v>43290</v>
@@ -19901,7 +19911,7 @@
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="2">
         <v>43291</v>
@@ -19950,7 +19960,7 @@
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="2">
         <v>43292</v>
@@ -19999,7 +20009,7 @@
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="2">
         <v>43293</v>
@@ -20048,7 +20058,7 @@
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="2">
         <v>43294</v>
@@ -20097,7 +20107,7 @@
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="2">
         <v>43297</v>
@@ -20146,7 +20156,7 @@
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="2">
         <v>43298</v>
@@ -20195,7 +20205,7 @@
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="2">
         <v>43299</v>
@@ -20244,7 +20254,7 @@
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="2">
         <v>43300</v>
@@ -20293,7 +20303,7 @@
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="2">
         <v>43301</v>
@@ -20342,7 +20352,7 @@
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="2">
         <v>43304</v>
@@ -20391,7 +20401,7 @@
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="2">
         <v>43305</v>
@@ -20440,7 +20450,7 @@
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="2">
         <v>43306</v>
@@ -20489,7 +20499,7 @@
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="2">
         <v>43307</v>
@@ -20538,7 +20548,7 @@
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="2">
         <v>43308</v>
@@ -20587,7 +20597,7 @@
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="2">
         <v>43311</v>
@@ -20636,7 +20646,7 @@
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="2">
         <v>43312</v>
@@ -20685,7 +20695,7 @@
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="2">
         <v>43313</v>
@@ -20734,7 +20744,7 @@
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="2">
         <v>43314</v>
@@ -20783,7 +20793,7 @@
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="2">
         <v>43315</v>
@@ -20832,7 +20842,7 @@
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="2">
         <v>43318</v>
@@ -20881,7 +20891,7 @@
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="2">
         <v>43319</v>
@@ -20930,7 +20940,7 @@
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="2">
         <v>43320</v>
@@ -20979,7 +20989,7 @@
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="2">
         <v>43321</v>
@@ -21028,7 +21038,7 @@
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="2">
         <v>43322</v>
@@ -21077,7 +21087,7 @@
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="2">
         <v>43325</v>
@@ -21126,7 +21136,7 @@
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="2">
         <v>43326</v>
@@ -21175,7 +21185,7 @@
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="2">
         <v>43327</v>
@@ -21224,7 +21234,7 @@
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="2">
         <v>43328</v>
@@ -21273,7 +21283,7 @@
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="2">
         <v>43329</v>
@@ -21322,7 +21332,7 @@
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="2">
         <v>43332</v>
@@ -21371,7 +21381,7 @@
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="2">
         <v>43333</v>
@@ -21420,7 +21430,7 @@
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="2">
         <v>43334</v>
@@ -21469,7 +21479,7 @@
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="2">
         <v>43335</v>
@@ -21518,7 +21528,7 @@
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="2">
         <v>43336</v>
@@ -21567,7 +21577,7 @@
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="2">
         <v>43339</v>
@@ -21616,7 +21626,7 @@
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="2">
         <v>43340</v>
@@ -21665,7 +21675,7 @@
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="2">
         <v>43341</v>
@@ -21714,7 +21724,7 @@
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="2">
         <v>43342</v>
@@ -21763,7 +21773,7 @@
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="2">
         <v>43343</v>
@@ -21812,7 +21822,7 @@
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="2">
         <v>43347</v>
@@ -21861,7 +21871,7 @@
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="2">
         <v>43348</v>
@@ -21910,7 +21920,7 @@
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="2">
         <v>43349</v>
@@ -21959,7 +21969,7 @@
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="2">
         <v>43350</v>
@@ -22008,7 +22018,7 @@
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="2">
         <v>43353</v>
@@ -22057,7 +22067,7 @@
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="2">
         <v>43354</v>
@@ -22106,7 +22116,7 @@
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="2">
         <v>43355</v>
@@ -22155,7 +22165,7 @@
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="2">
         <v>43356</v>
@@ -22204,7 +22214,7 @@
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="2">
         <v>43357</v>
@@ -22253,7 +22263,7 @@
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="2">
         <v>43360</v>
@@ -22302,7 +22312,7 @@
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="2">
         <v>43361</v>
@@ -22351,7 +22361,7 @@
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="2">
         <v>43362</v>
@@ -22400,7 +22410,7 @@
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="2">
         <v>43363</v>
@@ -22449,7 +22459,7 @@
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="2">
         <v>43364</v>
@@ -22498,7 +22508,7 @@
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="2">
         <v>43367</v>
@@ -22547,7 +22557,7 @@
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="2">
         <v>43368</v>
@@ -22596,7 +22606,7 @@
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="2">
         <v>43369</v>
@@ -22645,7 +22655,7 @@
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="2">
         <v>43370</v>
@@ -22694,7 +22704,7 @@
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="2">
         <v>43371</v>
@@ -22743,7 +22753,7 @@
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="2">
         <v>43374</v>
@@ -22792,7 +22802,7 @@
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="2">
         <v>43375</v>
@@ -22841,7 +22851,7 @@
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="2">
         <v>43376</v>
@@ -22890,7 +22900,7 @@
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="2">
         <v>43377</v>
@@ -22939,7 +22949,7 @@
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="2">
         <v>43378</v>
@@ -22988,7 +22998,7 @@
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="2">
         <v>43381</v>
@@ -23037,7 +23047,7 @@
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="2">
         <v>43382</v>
@@ -23086,7 +23096,7 @@
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="2">
         <v>43383</v>
@@ -23135,7 +23145,7 @@
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="2">
         <v>43384</v>
@@ -23184,7 +23194,7 @@
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="2">
         <v>43385</v>
@@ -23233,7 +23243,7 @@
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="2">
         <v>43388</v>
@@ -23282,7 +23292,7 @@
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="2">
         <v>43389</v>
@@ -23331,7 +23341,7 @@
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="2">
         <v>43390</v>
@@ -23380,7 +23390,7 @@
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="2">
         <v>43391</v>
@@ -23429,7 +23439,7 @@
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="2">
         <v>43392</v>
@@ -23478,7 +23488,7 @@
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="2">
         <v>43395</v>
@@ -23527,7 +23537,7 @@
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="2">
         <v>43396</v>
@@ -23576,7 +23586,7 @@
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="2">
         <v>43397</v>
@@ -23625,7 +23635,7 @@
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="2">
         <v>43398</v>
@@ -23674,7 +23684,7 @@
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="2">
         <v>43399</v>
@@ -23723,7 +23733,7 @@
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="2">
         <v>43402</v>
@@ -23772,7 +23782,7 @@
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="2">
         <v>43403</v>
@@ -23821,7 +23831,7 @@
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="2">
         <v>43404</v>
@@ -23870,7 +23880,7 @@
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="2">
         <v>43405</v>
@@ -23919,7 +23929,7 @@
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="2">
         <v>43406</v>
@@ -23968,7 +23978,7 @@
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="2">
         <v>43409</v>
@@ -24017,7 +24027,7 @@
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="2">
         <v>43410</v>
@@ -24066,7 +24076,7 @@
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="2">
         <v>43411</v>
@@ -24115,7 +24125,7 @@
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="2">
         <v>43412</v>
@@ -24164,7 +24174,7 @@
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="2">
         <v>43413</v>
@@ -24213,7 +24223,7 @@
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="2">
         <v>43416</v>
@@ -24262,7 +24272,7 @@
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="2">
         <v>43417</v>
@@ -24311,7 +24321,7 @@
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="2">
         <v>43418</v>
@@ -24360,7 +24370,7 @@
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="2">
         <v>43419</v>
@@ -24409,7 +24419,7 @@
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="2">
         <v>43420</v>
@@ -24458,7 +24468,7 @@
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" s="2">
         <v>43423</v>
@@ -24507,7 +24517,7 @@
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="2">
         <v>43424</v>
@@ -24556,7 +24566,7 @@
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" s="2">
         <v>43425</v>
@@ -24605,7 +24615,7 @@
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="2">
         <v>43427</v>
@@ -24654,7 +24664,7 @@
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="2">
         <v>43430</v>
@@ -24703,7 +24713,7 @@
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="2">
         <v>43431</v>
@@ -24752,7 +24762,7 @@
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" s="2">
         <v>43432</v>
@@ -24801,7 +24811,7 @@
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" s="2">
         <v>43433</v>
@@ -24850,7 +24860,7 @@
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" s="2">
         <v>43434</v>
@@ -24899,7 +24909,7 @@
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" s="2">
         <v>43437</v>
@@ -24948,7 +24958,7 @@
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" s="2">
         <v>43438</v>
@@ -24997,7 +25007,7 @@
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" s="2">
         <v>43440</v>
@@ -25046,7 +25056,7 @@
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" s="2">
         <v>43441</v>
@@ -25095,7 +25105,7 @@
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" s="2">
         <v>43444</v>
@@ -25144,7 +25154,7 @@
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" s="2">
         <v>43445</v>
@@ -25193,7 +25203,7 @@
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" s="2">
         <v>43446</v>
@@ -25242,7 +25252,7 @@
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" s="2">
         <v>43447</v>
@@ -25291,7 +25301,7 @@
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" s="2">
         <v>43448</v>
@@ -25340,7 +25350,7 @@
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" s="2">
         <v>43451</v>
@@ -25389,7 +25399,7 @@
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" s="2">
         <v>43452</v>
@@ -25438,7 +25448,7 @@
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" s="2">
         <v>43453</v>
@@ -25487,7 +25497,7 @@
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" s="2">
         <v>43454</v>
@@ -25536,7 +25546,7 @@
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" s="2">
         <v>43455</v>
@@ -25585,7 +25595,7 @@
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" s="2">
         <v>43458</v>
@@ -25634,7 +25644,7 @@
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" s="2">
         <v>43460</v>
@@ -25683,7 +25693,7 @@
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" s="2">
         <v>43461</v>
@@ -25732,7 +25742,7 @@
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" s="2">
         <v>43462</v>
@@ -25778,7 +25788,7 @@
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" s="2">
         <v>43465</v>
